--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_11.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_11.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_11_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2373,4 +2374,6355 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B633"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>拉</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>网络</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>热门</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>上限</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>隐私</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>网络连接</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>方</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>排列</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>至少</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>检索</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>资料</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>不满</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>感兴趣</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>活动</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>其他人</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>无关</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>断开</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>关键词</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>设定</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>分组</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>位置</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>群号</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>互动</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>现有</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>解散</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>表情</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>风险</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>专业性</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>漏洞</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>目标</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>模糊</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>表现</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>配置</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>确保</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>进</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>同名</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>常规</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>个性化</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>必要</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>二维码</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>开发者</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>具有</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>版本</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>速度</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>勾选</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>jayme</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>是因为</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>名为</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>意图</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>一种</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>乱序</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>栏目</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>目的</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>为名</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>第一条</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>管理混乱</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>个人信息</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>或前</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>路径</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>几条</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>征得</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>分类</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>杰伦</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>第二</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>遇到困难</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>基本</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>移除</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>实时</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>未经</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>模式</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>过于</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>无需</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>即可</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>较长时间</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>需</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>场景</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>这款</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>地拉</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>三个</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>莫名</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>新群</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>受</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>中断</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>传播</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>信息安全</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>重大</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>较大</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>踢</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>进群</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>花费</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>社交</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>实施</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>差距</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>简陋</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>较为</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>构成威胁</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>宽松</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>人来</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>效果</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>主流</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>涌入</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>私密性</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>相比</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>久</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>翻找</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>群要</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>出入</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>下面</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>旧</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>绕过</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>用于</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>呈现</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>误以为</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>较慢</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>网速</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>此群</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>完毕</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>一片空白</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>征求</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>方便</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>可视化</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>左上角</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>频率</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>疏忽</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>功能设计</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>没有响应</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>手机软件</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>难度</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>爱好</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>处</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>瞬间</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>人头</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>中才</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>看上去</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>画面</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>看不到</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>简介</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>属于</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>迅速</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>对话框</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>弹出</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>出该</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>搜到</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>相对</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>动物园</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>名有</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>含</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>名中</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>相关性</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>右上方</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>左下方</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>输入法</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>控制</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>此类</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>选中</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>尴尬</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>担忧</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>不安</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>唯一</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>重名</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>剩</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>主将</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>中有</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>表达</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>充分</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>一小部分</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>简短</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>申请理由</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>不当</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>通信</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>不想</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>仍会</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>缺少</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>内有</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>规模</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>共有</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>同一个</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>反复</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>准备</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>排</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>早</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>末尾</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>前方</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>精确</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>结果显示</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>禁用</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>使用者</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>不一致性</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>倒序</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>打字</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>避免出现</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>丢失</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>bug</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>失去</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>前面</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>单人</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>参与</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>创建者</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>申请</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>成本</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>大大增加</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>实体</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>视为</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>主动</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>框中</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>尚未</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>当有</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>拥有</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>仅能</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>搜索算法</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>土豆</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>地瓜</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>一次性</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>对应</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>应立即</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>优先</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>负担</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>额外</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>有害信息</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>破坏</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>泛滥</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>变化</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>主</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>侵犯</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>引发</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>观点</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>持有</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>授权</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>初始</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>跟随</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>变动</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>挫败</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>变更</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>指导</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>供</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>类别</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>失效</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>下拉菜单</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>乱七八糟</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>个人资料</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>冲突</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>愿意</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>权利</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>筛选</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>疑惑</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>批准</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>明确指出</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>组员</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>灰</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>地置</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>原</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>自由</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>无视</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>此项</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>严格执行</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>任何人</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>浏览</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>栏中</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>有人</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>号码</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>一人时</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>剩下</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>详情</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>过快</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>弹窗</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>一定</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>一名</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>认为</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>输出</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>竟然</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>便</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>冗余</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>浪费时间</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>触发</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>已有</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>类似</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>很难</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>很多</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>比如说</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>加进</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>个字符</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>当群</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>容纳</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>大型</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>令人遗憾</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>滚动</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>跑</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>有用</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>获取</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>认识</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>无意</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>显著</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>拉入</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>软件设计</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>单调</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>缺失</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>增强</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>特色</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>标识</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>上传</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>差异</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>修复</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>检查和</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>临时性</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>维护</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>意识</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>机会</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>感</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>难以确定</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>实际效果</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>在建</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>重新加入</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>时才</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>关闭</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>先</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>期间</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>完美</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>两种</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>确实</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>判断</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>阿拉伯数字</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>可能性</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>之外</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>正确区分</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>空洞</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_11.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_11.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,568 +437,885 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000008409</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>在创建群组中，完成步骤3后：在不需要对方同意的情况下，就能将对方拉进自己创建的群组中。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>创建 群组 完成 同意 情况 拉 进 创建 群组</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>10010000008602</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>创建入群条件为
 问题描述：在尝试创建一个新群组时，系统未能正确识别和实施所设置的入群条件。这可能导致新成员无法加入群组，或者加入了不符合设定条件的用户。</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>创建 入群 
  创建 新 群组 系统 未能 正确 识别 实施 设置 入群 新 成员 无法 加入 群组 加入 符合 设定</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000007605</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>在群组管理功能中，当尝试添加一个已经存在于群组的成员时，系统未能成功执行此操作。</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>群组 管理 添加 群组 成员 系统 未能 成功 执行</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10010000008282</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>打开搜索群组是下面没有推荐群组功能；</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>打开 搜索 群组 下面 没有 推荐 群组</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000008938</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>在群组设置中，当用户被踢出群聊后，他们仍然能够在消息页面上看到该群组。这可能导致一些混淆，因为被移除的成员本不应该能够看到群组的相关信息。</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>群组 设置 踢 出 群聊 仍然 能够 消息 页面 看到 群组 混淆 移除 成员 应该 能够 看到 群组 相关 信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000009105</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>该应用程序在用户退出群组后再次加入时，无法正确更新群组信息。当用户重新加入已退出的群组时，他们仍然可以看到之前已退出期间的群组消息和活动，这可能导致混淆并影响用户的使用体验。</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>应用程序 退出 群组 再次 加入 无法 正确 更新 群组 信息 重新加入 退出 群组 仍然 看到 之前 退出 期间 群组 消息 活动 混淆</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000007982</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>打开搜索群组是下面没有推荐群组功能；</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>打开 搜索 群组 下面 没有 推荐 群组</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>在群组设置中，当用户被踢出群聊后，他们仍然能够在消息页面上看到该群组。这可能导致一些混淆，因为被移除的成员本不应该能够看到群组的相关信息。</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>群组 设置 踢 出 群聊 仍然 能够 消息 页面 看到 群组 混淆 移除 成员 应该 能够 看到 群组 相关 信息</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>该应用程序在用户退出群组后再次加入时，无法正确更新群组信息。当用户重新加入已退出的群组时，他们仍然可以看到之前已退出期间的群组消息和活动，这可能导致混淆并影响用户的使用体验。</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>应用程序 退出 群组 再次 加入 无法 正确 更新 群组 信息 重新加入 退出 群组 仍然 看到 之前 退出 期间 群组 消息 活动 混淆</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>在新建群组的过程中，系统未能执行适当的验证步骤，以确保新群组与现有群组之间的差异。具体来说，当尝试创建具有相同群主和成员的群组时，系统并未提供任何提示或警告，表明了“是否新建”的问题。</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>新建 群组 过程 系统 未能 执行 适当 验证 确保 新 群组 现有 群组 之间 差异 具体来说 创建 具有 相同 群主 成员 群组 系统 并未 提供 提示 警告 表明 是否 新建</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000008181</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>该软件在创建群组时没有提供适当的一次性添加好友的提示。用户在选择好友后，应立即得到提示，而不是在完成群组创建后才给出提示。这导致用户必须返回前面的步骤去取消选择某些人，然后再次进入创建群组的操作，给用户带来了不便。</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>创建 群组 没有 提供 适当 一次性 添加 好友 提示 选择 好友 应立即 得到 提示 完成 群组 创建 给出 提示 必须 返回 前面 取消 选择 再次 进入 创建 群组 带来 不便</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000009134</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>在搜索群功能中，当用户没有输入任何内容时，期望的界面显示是显示热门推荐的群组列表。但在实际测试中，发现在没有任何输入的情况下，下方并没有显示任何推荐的群组，导致用户无法看到预期的内容展示。这是一个明显的界面与功能不符的问题。</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>搜索 群 没有 输入 内容 期望 界面显示 热门 推荐 群组 列表 发现 没有 输入 情况 下方 没有 推荐 群组 无法 看到 预期 内容 展示 明显 界面 不符</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000009320</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>在“我的群组”页面中，当用户尝试通过搜索框输入数字进行群组搜索时，系统返回了与输入数字不匹配的群组名称。例如，用户可能会输入“1235”，但系统返回的群组名称却与“1235”无关。这可能导致用户难以找到他们想要的群组，从而降低了用户体验。</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>群组 页面 搜索 框 输入 数字 进行 群组 搜索 系统 返回 输入 数字 匹配 群组 名称 输入 1235 系统 返回 群组 名称 1235 无关 难以 找到 想要 群组 降低</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000009705</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>在有网络连接的情况下，用户进入群组后断开了网络。当他们试图在搜索框中查找一个他们并未加入的群组时，系统并未显示“网络断开”的提示信息，而是直接显示“无相关结果”。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>网络连接 情况 进入 群组 断开 网络 试图 搜索 框中 查找 并未 加入 群组 系统 并未 网络 断开 提示信息 相关</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000008075</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>问题描述：在群组的设置页面中，当有好友退出该群组时，页面上并未显示相应的提示或变化。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>群组 设置 页面 当有 好友 退出 群组 页面 并未 相应 提示 变化</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000008136</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>这个软件界面显示了用户在操作某些功能后可以无需联系人的同意直接进入群组，这与预期的功能不符。通常，进入一个群组前需要得到该群组管理员或成员的批准。这里的问题可能是软件的一个bug，导致用户可以直接进入而没有经过正常的验证流程。</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>软件 界面显示 无需 联系人 同意 进入 群组 预期 不符 通常 进入 群组 前 得到 群组 管理员 成员 批准 软件 进入 没有 正常 验证</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000007924</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>在群组中，当组员更新他们的个人信息（如头像和名称）时，这些更改并未实时反映到群组界面上。尽管成员已经更新了他们的资料，但在群组内，他们显示的仍然是初始的信息，没有跟随最新的变动。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>群组 组员 更新 个人信息 头像 名称 更改 并未 实时 反映 群组 界面 成员 更新 资料 群组 仍然 初始 信息 没有 跟随 最新 变动</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000008372</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>在个人信息应用中，当用户尝试修改他们的信息后，这些变更似乎没有实时地更新到群组或其他相关功能中。尽管用户已经进行了信息的修改，但在进行群组互动时，如加入新群组或在现有群组中进行操作，用户的个人资料仍然显示为旧的信息。这可能导致了用户体验上的不一致和混淆。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>个人信息 应用 修改 信息 变更 没有 实时 更新 群组 相关 进行 信息 修改 进行 群组 互动 加入 新 群组 现有 群组 进行 个人资料 仍然 旧 信息 一致 混淆</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000008600</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>在群组搜索功能中，用户无法找到他们想要的目标群组。</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>群组 搜索 无法 找到 想要 目标 群组</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000009397</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>该应用程序在搜索功能上存在缺陷，用户无法通过关键字“乱七八糟群”找到他们创建的相应群组。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>应用程序 搜索 缺陷 无法 关键字 乱七八糟 群 找到 创建 相应 群组</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000008159</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>在创建群组的过程中，用户无法选择或分类群组。当尝试创建一个新的群组时，下拉菜单似乎失效了，没有提供任何类别供用户选择。此外，创建过程中的界面元素也没有提供任何关于如何进行分类的信息或指导。这可能会导致用户在尝试创建群组时感到困惑和挫败。</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>创建 群组 过程 无法 选择 分类 群组 创建 新 群组 下拉菜单 失效 没有 提供 类别 供 选择 创建 过程 界面 元素 没有 提供 进行 分类 信息 指导 创建 群组 感到 困惑 挫败</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000008869</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>创建群组时设置问题加入，第二方加入时，群主同意或者拒绝，第二方无法收到反馈。</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>创建 群组 设置 加入 第二 方 加入 群主 同意 拒绝 第二 方 无法 收到 反馈</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000008097</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>在创建群组并邀请好友的过程中，存在一个明显的bug。即使没有收到被邀请人的同意确认，他们仍然被直接拉入群组中。这种情况违反了群组管理的基本原则，即只有得到成员的明确同意，他们才能被加入某个群组。这种未经授权的添加行为可能导致不必要的麻烦，例如未征得同意的人可能对群组的内容或活动持有不同的观点，从而引发冲突。此外，这也可能会侵犯那些不愿意加入群组的人的权利。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>创建 群组 邀请 好友 过程 明显 没有 收到 邀请 同意 确认 仍然 拉 入 群组 情况 违反 群组 管理 基本 原则 得到 成员 明确 同意 加入 群组 未经 授权 添加 行为 不必要 麻烦 未 征得 同意 群组 内容 活动 持有 不同 观点 引发 冲突 侵犯 愿意 加入 群组 权利</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000008814</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>在创建群组的过程中，设置的“不允许任何人加入该群”的限制并未被严格执行。尽管群主设置了此项限制，但群主仍然能够随意邀请他人加入，而不需要对方的同意。同时，新加入的成员也可以无视这一设置，自由地邀请其他人加入，无需征得原设置者的同意。这违反了用户在创建群组时设定的规则，导致群组管理混乱。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>创建 群组 过程 设置 允许 任何人 加入 该群 限制 并未 严格执行 群主 设置 此项 限制 群主 仍然 能够 随意 邀请 加入 同意 新 加入 成员 无视 这一 设置 自由 邀请 其他人 加入 无需 征得 原 设置 同意 违反 创建 群组 设定 规则 群组 管理混乱</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000009282</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>问题描述：在尝试邀请多个好友加入某个群组时，当这些好友不是通过用户自己加入该群组时，系统不显示这些好友已经加入了该群组。这导致用户无法看到他们已经加入了该群组的提示，从而可能导致用户错误地选择并尝试邀请他们，随后系统会给出“该用户已加入群”的错误提示。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>邀请 多个 好友 加入 群组 好友 加入 群组 系统 好友 加入 群组 无法 看到 加入 群组 提示 错误 选择 邀请 系统 给出 加入 群 错误 提示</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000009521</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>在查找不存在的群组时，系统未能提供任何反馈结果或提示。</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>查找 群组 系统 未能 提供 反馈 提示</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008605</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>该软件在用户选择添加已存在于群组中的用户时，没有正确地置灰处理，导致用户在多次尝试后才能收到“该用户已经在群组”的提示。此外，提示信息并不明确指出是哪一个用户已在群组中，这增加了用户的困扰和疑惑。这种不一致的行为模式和不清晰的反馈机制导致了用户体验的下降。</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>选择 添加 群组 没有 正确 地置 灰 处理 多次 收到 群组 提示 提示信息 明确指出 群组 增加 困扰 疑惑 一致 行为 模式 清晰 反馈 机制 下降</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000008193</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>在软件的群查找功能中，出现了功能性错误。当用户尝试筛选显示群时，结果展示的是用户已经加入的群，而不是应用内存在的群组。这可能导致用户难以找到他们需要的信息或群组，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>软件 群 查找 出现 功能性 错误 筛选 群时 展示 加入 群 应用 群组 难以 找到 信息 群组</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000009226</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>在聊天应用的主页面直接点击搜索，系统仅能显示已加入的用户和群组，无法检索到未加入的群组。然而，进入“群组”选项后再次点击搜索，则可以检索到所有群组的信息，包括那些用户尚未加入的群组。</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>聊天 应用 主 页面 点击 搜索 系统 仅能 加入 群组 无法 检索 未 加入 群组 进入 群组 选项 再次 点击 搜索 检索 群组 信息 包括 尚未 加入 群组</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000008580</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>该软件在进入朋友页面并尝试创建群组时存在显示问题。具体来说，当用户点击更多选项进入创建群组页面时，页面并未显示预期的好友列表，而只有最近联系人的信息。尽管如此，创建群组的功能似乎仍然可以正常使用。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>进入 朋友 页面 创建 群组 具体来说 点击 更 选项 进入 创建 群组 页面 页面 并未 预期 好友 列表 最近 联系人 信息 创建 群组 仍然 正常</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000009631</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>该软件在查找群组功能上存在缺陷。用户无法通过输入群组编号来搜索特定的群组，这违反了用户的期望和软件的功能要求。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>查找 群组 缺陷 无法 输入 群组 编号 搜索 特定 群组 违反 期望 软件 要求</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000009239</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>当好友邀请本人加入群聊时，不能主动拒绝，直接就出现在群组中，只可以选择退出群组，不能够在一开始被邀请时拒绝加入。</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>好友 邀请 加入 群聊 不能 主动 拒绝 出现 群组 选择 退出 群组 能够 邀请 拒绝 加入</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000009352</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>在创建群组或加入群组的步骤中，当用户尝试添加成员或加入群组时，系统并未区分账号和昵称。这导致无论用户输入的是账号还是昵称，系统都会将其视为同一实体进行查找，从而大大增加了搜索结果的数量。这种设计缺陷可能导致用户体验不佳，并增加操作的时间成本。</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>创建 群组 加入 群组 添加 成员 加入 群组 系统 并未 区分 账号 昵称 输入 账号 昵称 系统 视为 同一 实体 进行 查找 大大增加 搜索 数量 设计 缺陷 不佳 增加 时间 成本</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000009519</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>在加入群组步骤4完成后：想要加入的群组管理员不处理或延迟处理加群请求，而申请方只能等待通知，无其他通知。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>加入 群组 完成 想要 加入 群组 管理员 处理 延迟 处理 加群 请求 申请 方 只能 等待 通知 通知</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000009388</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>该软件在创建群组的过程中出现了一个bug。当用户尝试创建一个只有创建者自己的群组时，系统无法识别任何最近联系人或没有联系人的情况。因此，用户无法选择好友来参与这个群组，也无法直接进入下一步操作。这导致了一个单人群组无法被成功创建的问题。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>创建 群组 过程 出现 创建 创建者 群组 系统 无法 识别 最近 联系人 没有 联系人 情况 无法 选择 好友 参与 群组 无法 进入 一步 单人 群组 无法 成功 创建</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000008889</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>【预置条件】
 用户已登录
@@ -1012,7 +1329,7 @@
 该群组人员仍显示为4人</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t xml:space="preserve">
  登录 
@@ -1025,662 +1342,1013 @@
  群组 人员</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10010000008688</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>该软件的群组设置功能存在漏洞。具体表现为，任何拥有足够权限的用户都能邀请自己的好友加入某个群组，这可能导致广告信息泛滥。这种设计可能会破坏群组的隐私和专业性，增加用户接收不相关或有害信息的风险。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>群组 设置 漏洞 具体表现 拥有 足够 权限 邀请 好友 加入 群组 广告 信息 泛滥 设计 破坏 群组 隐私 专业性 增加 接收 相关 有害信息 风险</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000009425</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>该软件界面中，用户在搜索群组时，系统没有提供历史搜索记录的展示功能。当用户尝试加入一个群组但失败后，他们需要重新进行搜索，这增加了用户的额外操作负担。此外，即使用户已经成功加入了某个群组，相关的群组信息并没有被优先展示出来，这可能导致用户难以快速找到并查看他们已加入的群组。</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>界面 搜索 群组 系统 没有 提供 历史 搜索 记录 展示 加入 群组 失败 重新 进行 搜索 增加 额外 负担 成功 加入 群组 相关 群组 信息 没有 优先 展示 难以 快速 找到 查看 加入 群组</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000008878</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>根据问题描述和对应的图片，这个软件界面在执行搜索操作时出现了错误。当用户试图查找名为“地瓜土豆”的群组时，系统错误地显示了两个重复的群组名称，而不是一个。这可能是因为系统的搜索算法存在问题，或者是数据存储和检索过程中的错误。这个问题可能会导致用户无法正确找到他们想要加入的群组，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>对应 图片 软件 界面 执行 搜索 出现 错误 试图 查找 名为 地瓜 土豆 群组 系统 错误 两个 重复 群组 名称 是因为 系统 搜索算法 数据 存储 检索 过程 错误 无法 正确 找到 想要 加入 群组</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000009220</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>在jayme的朋友界面中，当用户试图查看“群组”选项并浏览邀请消息时，系统似乎没有正确处理大量的邀请请求。预期的操作是“群消息助手”会提示用户有某用户邀请他们加入某个群组，并允许用户选择“同意”或“拒绝”。但在实际情况下，用户被直接拉入了许多群组，没有得到任何确认或选择的机会。这导致了用户体验的混乱和不便，因为用户可能并未意识到他们已经加入了这些群组。</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>jayme 朋友 界面 试图 查看 群组 选项 浏览 邀请 消息 系统 没有 正确处理 大量 邀请 请求 预期 群 消息 助手 提示 邀请 加入 群组 允许 选择 同意 拒绝 情况 拉入 群组 没有 得到 确认 选择 机会 混乱 不便 并未 意识 加入 群组</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10010000008939</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>该软件界面在当前版本下，加群功能的部分显示出现了问题。具体来说，用户在尝试加入群组时，原本应该展示的“热门群推荐”信息并没有出现，这可能导致用户无法看到并选择他们可能感兴趣的群组。这个问题可能是由于软件的版本更新或维护导致的临时性故障，需要开发者进一步检查和修复。</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>界面 当前 版本 加群 部分 出现 具体来说 加入 群组 原本 应该 展示 热门 群 推荐 信息 没有 出现 无法 看到 选择 感兴趣 群组 软件 版本 更新 维护 临时性 故障 开发者 进一步 检查和 修复</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10010000009093</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>在创建群组的过程中，用户界面缺乏必要的个性化功能。具体来说，当尝试填写群组信息时，没有提供上传群头像的选项，这使得用户无法为他们的群组添加个人标识或特色。此外，该界面也没有提供任何其他可能增强聊天体验的个性化设计元素。这种设计的缺失可能导致用户体验上的单调和不完整感，从而影响用户对应用的整体满意度。</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>创建 群组 过程 用户界面 缺乏 必要 个性化 具体来说 填写 群组 信息 没有 提供 上传 群 头像 选项 无法 群组 添加 个人 标识 特色 界面 没有 提供 增强 聊天 个性化 设计 元素 设计 缺失 单调 完整 感 应用 整体 满意度</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000009234</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>问题描述：用户在尝试加入群组时，没有看到热门推荐的群组选项。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>加入 群组 没有 看到 热门 推荐 群组 选项</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10010000009656</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>该软件的群组创建功能似乎存在一个bug。根据图片显示，当用户试图创建一个新群组时，系统要求添加至少一个好友才能完成此操作。然而，如果用户没有已添加的好友，则无法完成群组的创建，这显然阻止了用户使用这一功能。这可能是由于软件设计中的某些逻辑错误或配置问题导致的。</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>群组 创建 图片 试图 创建 新 群组 系统 要求 添加 至少 好友 完成 没有 添加 好友 无法 完成 群组 创建 显然 阻止 这一 软件设计 逻辑 错误 配置</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10010000008913</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>该bug表现为在搜索群组时，系统无法准确区分出昵称和头像相同的群组。特别是当用户尝试通过模糊匹配搜索群号时，结果并不明确，导致用户难以确定具体加入哪一个群组。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>表现 搜索 群组 系统 无法 准确 区分 出 昵称 头像 相同 群组 特别 模糊 匹配 搜索 群号 明确 难以确定 具体 加入 群组</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000009281</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>该软件界面在群组搜索功能上存在缺陷。当用户尝试查找并加入特定的群组时，由于系统未能正确区分具有相同名称的不同群组，导致用户可能会错误地加入他们原本意图加入的群组之外的其他同名群组。这种设计问题可能导致用户的混淆和不便，增加了误操作的可能性。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>界面 群组 搜索 缺陷 查找 加入 特定 群组 系统 未能 正确区分 具有 相同 名称 不同 群组 错误 加入 原本 意图 加入 群组 之外 同名 群组 设计 混淆 不便 增加 误操作 可能性</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10010000009313</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>点击群组查找群，输入阿拉伯数字，如1，22等，会出现与搜索条件无关的群组。</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>点击 群组 查找 群 输入 阿拉伯数字 22 出现 搜索 无关 群组</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000009380</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>在群组设置页面中，没有显示群组成员的上限为500人的提示信息。</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>群组 设置 页面 没有 群 组成员 上限 500 提示信息</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000009448</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>搜索已加入的群名称时系统自动匹配的群组没有对于已加入群组的相关提示。</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>搜索 加入 群 名称 系统 自动 匹配 群组 没有 加入 群组 相关 提示</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000009713</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>在软件的群聊功能中，用户反馈存在一个bug，即部分群组无法被找到或检索到。这可能是由于软件内部的某些逻辑错误或配置问题导致的，导致用户无法通过预期的方式访问他们想要查找的群组。</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>软件 群聊 反馈 部分 群组 无法 找到 检索 软件 内部 逻辑 错误 配置 无法 预期 方式 访问 想要 查找 群组</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>10010000008433</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>该软件在查找并加入群组后，查看聊天图片时出现显示空白的问题，没有加载出任何提示信息。用户无法判断是网络速度问题还是群组内确实没有聊天图片。建议开发者增加一个提示信息：“群组无聊天图片”，以便区分这两种情况。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>查找 加入 群组 查看 聊天 图片 出现 空白 没有 加载 出 提示信息 无法 判断 网络 速度 群组 确实 没有 聊天 图片 建议 开发者 增加 提示信息 群组 聊天 图片 区分 两种 情况</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10010000008287</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>打开查找群功能没有推荐群组，不够完美；</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>打开 查找 群 没有 推荐 群组 不够 完美</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000008866</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>该软件在用户尝试创建群组时，存在一个网络连接不可用的bug。当用户先选择联系人后关闭网络，然后点击确定按钮，系统并未立即提示网络连接不可用，而是在进入创建群组界面并尝试创建时才显示此错误消息。这意味着用户在没有网络连接的情况下被允许进入创建界面，这可能导致他们在尝试创建群组时遇到问题。</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>创建 群组 网络连接 不可 先 选择 联系人 关闭 网络 点击 确定 按钮 系统 并未 立即 提示 网络连接 不可 进入 创建 群组 界面 创建 时才 错误 消息 意味着 没有 网络连接 情况 允许 进入 创建 界面 创建 群组 遇到</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10010000008822</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>该软件在建群设置权限时存在逻辑错误。当设置为“不允许加入该群”时，用户在尝试创建群组时仍然被要求选择好友才能完成操作，这导致该权限的实际效果并不显著。</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>在建 群 设置 权限 逻辑 错误 设置 允许 加入 该群 创建 群组 仍然 要求 选择 好友 完成 权限 实际效果 显著</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000009802</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>问题描述：该软件界面显示，用户在尝试创建群组时，系统没有阻止或提示用户不能创建与已有同名的群组。这意味着用户可能会无意中或错误地重复创建一个已经存在的群组，导致数据冗余和潜在的管理混乱。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>界面显示 创建 群组 系统 没有 阻止 提示 不能 创建 已有 同名 群组 意味着 无意 错误 重复 创建 群组 数据 冗余 潜在 管理混乱</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000008995</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>新建群组时未经他人允许便将他人加入群组</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>新建 群组 未经 允许 便 加入 群组</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>10010000009287</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>根据提供的问题描述和图片，这个软件Bug表现为在搜索并尝试加入一个特定的群组时，查找功能失败。用户按照预期的步骤进行操作，但实际结果与预期不符，无法成功找到该群组。这可能意味着软件在处理群组搜索请求和用户界面交互方面存在问题，导致用户无法完成他们原本想要的操作。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>提供 图片 软件 Bug 表现 搜索 加入 特定 群组 查找 失败 预期 进行 预期 不符 无法 成功 找到 群组 意味着 软件 处理 群组 搜索 请求 用户界面 交互 方面 无法 完成 原本 想要</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10010000007915</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>问题描述：
 该软件在用户创建群组并仅添加一个成员的情况下，不应允许其成功创建。然而，实际测试中，当创建一个名为“测试”的群组并只添加一个成员时，群组竟然被成功创建。这与预期输出不符，导致用户体验不佳，可能会误导用户认为可以随意创建群组，即使人数不足。</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t xml:space="preserve">
  创建 群组 仅 添加 成员 情况 应 允许 成功 创建 创建 名为 群组 添加 成员 群组 竟然 成功 创建 预期 输出 不符 不佳 误导 认为 随意 创建 群组 人数 不足</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000009703</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>在群资料页面中，显示了一个只有一名成员的群组。</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>群 资料 页面 一名 成员 群组</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10010000008192</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>该软件在用户尝试邀请大量好友加入群组时出现了系统错误。具体表现为，当用户尝试邀请超过一定数量的好友时，系统无法完成创建群组的操作。同时，由于弹窗出现的速度过快，导致无法进行截图以记录问题详情。这可能导致用户无法正常使用群组功能，从而影响其使用体验。</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>邀请 大量 好友 加入 群组 出现 系统 错误 具体表现 邀请 超过 一定 数量 好友 系统 无法 完成 创建 群组 弹窗 出现 速度 过快 无法 进行 截图 记录 详情 无法 正常 群组</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10010000009835</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>在群聊中，当其他所有成员都退出后，只剩下一人时，该群组并没有解散。此外，这个群组无法被搜索到，无论是通过群的名称还是群的号码。这意味着存在一种情况，即有人可能无法加入此群组。</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>群聊 成员 退出 剩下 一人时 群组 没有 解散 群组 无法 搜索 无论是 群 名称 群 号码 意味着 一种 情况 有人 无法 加入 群组</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000008823</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>在添加群组的过程中，用户在搜索栏中输入不存在的群组名称时，系统错误地显示了该群组。尽管群组实际上并不存在，但用户仍然可以在搜索结果中找到并尝试添加它。这可能导致用户混淆并浪费时间。</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>添加 群组 过程 搜索 栏中 输入 群组 名称 系统 错误 群组 群组 实际上 仍然 搜索 找到 添加 混淆 浪费时间</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000009748</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>该界面显示了一个群组设置的退出选项，当用户点击时，群组会从列表中移除，并产生一个消息提醒。同时，群主在解散群组时也会触发类似的操作，即群组消失并有消息提醒。</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>界面显示 群组 设置 退出 选项 点击 群组 列表 移除 产生 消息 提醒 群主 解散 群组 触发 类似 群组 消失 消息 提醒</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10010000009286</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>该软件在创建群组的过程中存在一个严重的bug。根据问题描述和图片内容，当用户尝试创建一个新的群组时，系统不仅允许用户从其好友列表中选择成员，还允许他们从系统中选择陌生人作为群组成员。这违反了用户的期望，因为创建群组的目的应该是让用户与他们的好友互动，而不是与他们不认识的陌生人。这种设计缺陷可能会导致用户的不满和隐私问题。</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>创建 群组 过程 严重 图片 内容 创建 新 群组 系统 允许 好友 列表 选择 成员 允许 系统 选择 陌生人 群 组成员 违反 期望 创建 群组 目的 应该 好友 互动 认识 陌生人 设计 缺陷 不满 隐私</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>10010000008105</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>该软件界面显示用户在尝试加入群组时，有一个热门群推荐的栏目。然而，当用户点击进入这个栏目时，发现推荐内容为空白，没有任何群组信息或推荐。这可能会给用户带来困扰，因为他们无法从这个推荐列表中获取到有用的信息或找到感兴趣的群组。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>界面显示 加入 群组 热门 群 推荐 栏目 点击 进入 栏目 发现 推荐 内容 空白 没有 群组 信息 推荐 带来 困扰 无法 推荐 列表 获取 有用 信息 找到 感兴趣 群组</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10010000008984</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>在软件界面中，查找加入群组的功能似乎出现了显示问题。当用户尝试查找并加入群组时，匹配到的群组信息并没有显示在预期的位置，而是跑到了屏幕的最下方。这可能导致用户在查找和操作时感到不便，可能需要滚动查看更多内容才能看到完整的群组列表。</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>软件 界面 查找 加入 群组 出现 查找 加入 群组 匹配 群组 信息 没有 预期 位置 跑 屏幕 下方 查找 感到 不便 滚动 查看 更 内容 看到 完整 群组 列表</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000008093</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>在这张图片中，用户正在使用一个群组设置界面，他们试图找到关于群人数上限的信息。然而，令人遗憾的是，这个界面似乎并没有提供群人数的上限信息。这可能意味着系统没有设定一个明确的人数上限，或者该上限信息未被清晰地展示给用户。这种设计可能会导致用户在管理大型群组时遇到困难，因为他们无法准确知道何时需要创建新的群组来容纳更多的成员。</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>图片 正在 群组 设置 界面 试图 找到 群 人数 上限 信息 令人遗憾 界面 没有 提供 群 人数 上限 信息 意味着 系统 没有 设定 明确 人数 上限 上限 信息 未 清晰 展示 设计 管理 大型 群组 遇到困难 无法 准确 知道 创建 新 群组 容纳 更 成员</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000009513</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>该软件的群组设置功能存在显示问题。用户在加入一个群组后，无法正确查看全部群名称和其他基本群资料。特别是当群名称超过64个字符时，只能显示部分内容，且无法完整展示所有群成员的信息。这违反了预期结果，即作为群成员应能查看全部群资料的要求。</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>群组 设置 加入 群组 无法 正确 查看 群 名称 基本 群 资料 特别 当群 名称 超过 64 个字符 只能 部分 内容 无法 完整 展示 群 成员 信息 违反 预期 群 成员 应 查看 群 资料 要求</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000009667</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>根据关键字搜索想要加进的群的时候，比如说“杰伦”，就出现了很多关于“杰伦”的群组，很难找到自己想要加的那个群组，布局很混乱。</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>关键字 搜索 想要 加进 群 比如说 杰伦 出现 很多 杰伦 群组 很难 找到 想要 加 群组 布局 混乱</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10010000009385</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>该软件在创建群组后出现了页面模糊的现象，这很可能是由于页面布局设计上的缺陷导致的。</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>创建 群组 出现 页面 模糊 现象 页面 布局 设计 缺陷</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>10010000008340</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>该软件在执行解散群组的操作时，没有提供必要的确认提示给用户。用户可能会因为误操作而失去对群组的控制，这可能导致数据丢失或沟通中断。</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>执行 解散 群组 没有 提供 必要 确认 提示 误操作 失去 群组 控制 数据 丢失 沟通 中断</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10010000008807</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>该软件在创建群组时存在一个bug，即邀请好友加入群组的过程不需要受邀请方的同意。这导致了用户被莫名地拉入了许多群组，从而可能对他们的正常活动造成干扰。</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>创建 群组 邀请 好友 加入 群组 过程 受 邀请 方 同意 莫名 地拉 入 群组 正常 活动 造成 干扰</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10010000008548</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>在查找群时，如果群不存在或未被添加，应用程序没有提供任何视觉或文本提示来通知用户该群组不存在。</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>查找 群时 群 未 添加 应用程序 没有 提供 视觉 文本 提示 通知 群组</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10010000008731</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>在软件的群组查找功能中，用户在搜索并查看查找到的群组信息时，无法明确区分哪些群组是已经加入的，哪些是未加入的。这导致了用户在查看结果时的混淆和不便。</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>软件 群组 查找 搜索 查看 查找 群组 信息 无法 明确 区分 群组 加入 未 加入 查看 混淆 不便</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10010000009622</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>测试功能:查找群
 重现步骤:群组——右上角——加入群——搜索23
@@ -1688,7 +2356,7 @@
 预期结果:以23为名的群组出现在第一条或前几条搜索结果</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>: 查找 群 
  重现 : 群组 — — 右上角 — — 加入 群 — — 搜索 23 
@@ -1696,678 +2364,1024 @@
  预期 : 23 为名 群组 出现 第一条 或前 几条 搜索</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10010000008295</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>该软件在执行查找群功能时存在bug。用户按照“群组——右上角——加入群——搜索23”的步骤操作后，所要查找的群并未按预期顺序出现，而是以乱序的方式排列，导致用户需要花费较长时间才能找到目标群组。这与预期结果不符，预期结果是以“23”为名的群组应该出现在搜索结果的第一条或前几条位置。</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>执行 查找 群 群组 — — 右上角 — — 加入 群 — — 搜索 23 查找 群 并未 预期 顺序 出现 乱序 方式 排列 花费 较长时间 找到 目标 群组 预期 不符 预期 23 为名 群组 应该 出现 搜索 第一条 或前 几条 位置</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10010000008991</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>该软件界面显示，用户无法找到或访问他们创建的群组。在“我的群聊”和“我的所有群”选项下，没有出现任何用户所创建的群组列表。这可能导致用户无法管理和与他们创建的群组中的其他成员互动。</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>界面显示 无法 找到 访问 创建 群组 群聊 群 选项 没有 出现 创建 群组 列表 无法 管理 创建 群组 成员 互动</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10010000007985</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>该软件在群组管理方面存在严重缺陷。首先，好友要求过于宽松，任何用户都可以被邀请进群，这可能导致大量无关用户的涌入，从而影响群组的专业性或私密性。其次，当其他用户邀请自己加入群组时，系统并未提供适当的确认步骤，导致用户在不知情的情况下被突然拉入群组，这可能引起用户的不满和困扰。此外，这种设计可能会增加垃圾信息的传播风险，并可能对用户的隐私安全构成威胁。总的来说，这个问题反映了软件在用户权限管理和信息安全方面存在的重大漏洞。</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>群组 管理 方面 严重 缺陷 好友 要求 过于 宽松 邀请 进群 大量 无关 涌入 群组 专业性 私密性 邀请 加入 群组 系统 并未 提供 适当 确认 不知情 情况 突然 拉 入 群组 引起 不满 困扰 设计 增加 垃圾 信息 传播 风险 隐私 安全 构成威胁 反映 软件 权限 管理 信息安全 方面 重大 漏洞</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10010000009309</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>在这款APP的群组页面，用户界面设计与预期的交互模式有较大的出入。与QQ群组页面相比，该APP的显示效果显得较为简陋和不直观，导致用户在查找和管理群组时可能会感到困惑或不便。例如，群组名称和成员数量的展示方式、群组图标的设计以及搜索功能的位置等都与主流的社交软件存在明显的差距，这可能会影响到用户的整体使用体验。</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>这款 APP 群组 页面 用户界面 设计 预期 交互 模式 较大 出入 QQ 群组 页面 相比 APP 效果 显得 较为 简陋 直观 查找 管理 群组 感到 困惑 不便 群组 名称 成员 数量 展示 方式 群组 图标 设计 搜索 位置 主流 社交 软件 明显 差距 整体</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10010000008015</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>在点击“我的群组”时，页面上没有任何提示信息表明用户没有群组或者页面未加载完成。这可能会让用户感到困惑，不清楚是因为他们没有创建任何群组，还是因为页面加载出现了问题。</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>点击 群组 页面 没有 提示信息 表明 没有 群组 页面 未 加载 完成 感到 困惑 清楚 是因为 没有 创建 群组 页面 加载 出现</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10010000008244</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>该软件在用户尝试搜索“测试”关键词时，出现了一个群列表。然而，在已加入的群组名称后面并没有显示“我的群”，这可能会给用户带来不便，因为用户无法直接识别哪些是他们已加入的群。这种设计上的缺陷可能导致用户在查找和管理自己的群组时遇到困难。</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>搜索 关键词 出现 群 列表 加入 群组 名称 后面 没有 群 带来 不便 无法 识别 加入 群 设计 缺陷 查找 管理 群组 遇到困难</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10010000009325</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>在进行操作2时，用户发现系统允许仅勾选一个人来创建群组，这导致实际上只建立了两个人的群。按照常规逻辑，创建群组至少需要选择两个成员，但在这个场景中，用户只需勾选一个人即可完成创建。这可能导致了群组人数不足的问题，因此建议系统在用户尝试创建群组时，提示他们至少需要选择两个成员，以确保创建的群组至少有三个人。</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>进行 发现 系统 允许 仅 勾选 人来 创建 群组 实际上 建立 两个 群 常规 逻辑 创建 群组 至少 选择 两个 成员 场景 需 勾选 即可 完成 创建 群组 人数 不足 建议 系统 创建 群组 提示 至少 选择 两个 成员 确保 创建 群组 至少 三个</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10010000008086</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>该软件界面中，用户在群主管理功能下，只能进行对已加入的群组或所有群组的查找操作。然而，当用户想要查找未加入的群组时，这一操作不可用，导致用户体验不佳。此外，该设计与搜索新群的功能存在重复，使得用户可能会感到困惑，不知道哪个功能是用于添加新群组的。</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>界面 群主 管理 只能 进行 加入 群组 群组 查找 想要 查找 未 加入 群组 这一 不可 不佳 设计 搜索 新群 重复 感到 困惑 知道 用于 添加 新 群组</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10010000008243</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>问题描述：在查找群组时，当尝试通过输入群昵称进行搜索时，系统无法显示或找到相应的群组。</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>查找 群组 输入 群 昵称 进行 搜索 系统 无法 找到 相应 群组</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10010000008504</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>4</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>该bug描述为：A用户在建立群组后，通过点击右上角的“人头”进入群组设置页面，并尝试通过“添加群成员”功能来邀请B用户加入。但在B用户没有明确同意的情况下，系统错误地将B用户直接拉入群组中，导致B用户收到了不必要的邀请提示。这个问题可能是由于系统内部的通信错误或者权限设置不当导致的。</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>A 建立 群组 点击 右上角 人头 进入 群组 设置 页面 添加 群 成员 邀请 B 加入 B 没有 明确 同意 情况 系统 错误 B 拉 入 群组 B 收到 不必要 邀请 提示 系统 内部 通信 错误 权限 设置 不当</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10010000009710</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>该bug描述的问题是，当用户在尝试加入群组时，如果提供的申请理由过于简短或不完整，系统似乎没有适当地处理这些信息，导致用户只能看到输入内容的一小部分。这可能使得用户难以提供充分的说明来表达他们加入群组的原因，从而影响他们的体验和群组管理的效率。</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>加入 群组 提供 申请理由 过于 简短 完整 系统 没有 适当 处理 信息 只能 看到 输入 内容 一小部分 难以 提供 充分 说明 表达 加入 群组 原因 群组 管理 效率</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10010000009132</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>该软件在创建群组时存在逻辑错误。用户无法创建一个只包含一个人（即1人）的群组，这违反了正常的功能预期。此外，尽管不能创建只有一个人的群组，但软件允许群主将群成员数量删除到只剩一个人，这与软件的设计目的不符。</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>创建 群组 逻辑 错误 无法 创建 包含 群组 违反 正常 预期 不能 创建 群组 软件 允许 群 主将 群 成员 数量 删除 剩 软件 设计 目的 不符</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10010000008315</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>在搜索群名加群时，用户遇到了一个重复群名的问题。当尝试搜索特定的群组名称时，系统返回了多个重名的群组选项，而不是唯一的那个。这可能导致用户混淆并错误地加入了他们原本意图加入的群组。</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>搜索 群名 加群 遇到 重复 群名 搜索 特定 群组 名称 系统 返回 多个 重名 群组 选项 唯一 混淆 错误 加入 原本 意图 加入 群组</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10010000008301</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>该应用程序在创建群组功能上存在缺陷。用户在尝试创建群组并添加其他用户时，系统未能正确执行好友验证流程。具体来说，即使不是好友的用户也可以被添加进群组，这可能导致了安全和隐私的问题，给用户带来了困扰。</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>应用程序 创建 群组 缺陷 创建 群组 添加 系统 未能 正确 执行 好友 验证 具体来说 好友 添加 进 群组 安全 隐私 带来 困扰</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10010000008494</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>这个bug描述了一个软件的群组功能问题。当用户被其他人拉入一个群组时，即使没有得到用户的明确同意，该用户仍然可以直接进入该群组。这可能导致用户感到不安或担忧他们的隐私和安全。</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>软件 群组 其他人 拉 入 群组 没有 得到 明确 同意 仍然 进入 群组 感到 不安 担忧 隐私 安全</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10010000008956</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>问题描述：在测试中，我发现了一个严重的功能缺陷。当尝试将用户拉入群组时，系统并未要求该用户的同意。这可能导致了尴尬的情况，例如，用户可能被随意地从搜索结果中选中并加入群组，而他们甚至不知道这个操作的发生。这种设计缺陷使得两个不同的账号就能够进行此类测试，从而绕过了正常的验证流程。</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>发现 严重 缺陷 拉 入 群组 系统 并未 要求 同意 尴尬 情况 随意 搜索 选中 加入 群组 知道 发生 设计 缺陷 两个 不同 账号 能够 进行 此类 绕过 正常 验证</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10010000008339</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>在创建群组并尝试添加成员的过程中，系统并未提供给用户任何确认或拒绝加入的选项。这意味着，即使A不想加入该群组，如果B试图将A添加到群组中，A仍会被自动加入，这显然不符合用户的期望和习惯。这种情况可能导致用户的困扰和不满，从而影响整体的用户体验。</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>创建 群组 添加 成员 过程 系统 并未 提供 确认 拒绝 加入 选项 意味着 A 不想 加入 群组 B 试图 A 添加 群组 A 仍会 自动 加入 显然 符合 期望 习惯 情况 困扰 不满 整体</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10010000009477</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>缺少群二维码，如果群组内有群二维码，就可以避免出现打字输入群组名称或者输入群号的麻烦。</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>缺少 群 二维码 群组 内有 群 二维码 避免出现 打字 输入 群组 名称 输入 群号 麻烦</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10010000009840</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>该软件在处理群组列表和搜索结果时存在显示顺序不一致的问题。在“我的群组”列表中，群组显示为倒序排列，而在进行群组搜索时，结果却按照正常顺序展示。这种不一致性可能会给使用者带来混淆，影响用户界面的用户体验。</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>处理 群组 列表 搜索 顺序 一致 群组 列表 群组 倒序 排列 进行 群组 搜索 正常 顺序 展示 不一致性 使用者 带来 混淆 用户界面</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10010000008678</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>设置为不可加入的群组无法在加入群组中搜索到，如果可以搜索到但把加入群聊按钮禁用会比较好。</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>设置 不可 加入 群组 无法 加入 群组 搜索 搜索 加入 群聊 按钮 禁用 比较</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10010000009308</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>该软件在执行“加入群聊”操作后，搜索结果显示的群组排列逻辑存在错误。用户期望精确匹配的群组能够在列表的最前方显示，但在实际运行中，这些匹配的群组却出现在了列表的末尾。此外，列表是按照创建时间排序的，这导致即使匹配的群组创建时间较早，它们也可能被排在最后。这种排列顺序与用户的直观预期不符，可能会导致用户在查找特定群组时感到困惑和不便。</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>执行 加入 群聊 搜索 结果显示 群组 排列 逻辑 错误 期望 精确 匹配 群组 能够 列表 前方 运行 匹配 群组 出现 列表 末尾 列表 创建 时间 排序 匹配 群组 创建 时间 早 排 最后 排列 顺序 直观 预期 不符 查找 特定 群组 感到 困惑 不便</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10010000008490</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>在尝试加入一个已存在的群组时，系统似乎没有阻止用户重复加入的操作。当用户搜索并准备加入一个群组时，系统未能正确识别该用户已经加入了相同的群组，导致用户可以无限制地反复添加自己到同一个群组中。</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>加入 群组 系统 没有 阻止 重复 加入 搜索 准备 加入 群组 系统 未能 正确 识别 加入 相同 群组 限制 反复 添加 同一个 群组</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10010000008933</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>在聊天界面的每个群组名称后面，应该显示该群组共有多少人，以便用户了解群组的规模。例如，如果现有的群组A中有15个人，那么该群组应正确显示为A(15)，以直观地展示其成员数量。</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>聊天 界面 每个 群组 名称 后面 应该 群组 共有 了解 群组 规模 现有 群组 A 中有 15 个人 群组 应 正确 A ( 15 ) 直观 展示 成员 数量</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10010000008951</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>该软件在创建群组时，允许用户使用表情作为群名称。然而，由于手机输入法自带的表情不一致，这导致当用户尝试通过关键字搜索来查找群组时，使用特定表情作为关键词进行搜索无法找到相应的群组。</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>创建 群组 允许 表情 群 名称 手机 输入法 自带 表情 一致 关键字 搜索 查找 群组 特定 表情 关键词 进行 搜索 无法 找到 相应 群组</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10010000008941</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>问题描述：
 在jayme的朋友界面中，当用户选择“群组”并尝试通过“加入群”功能时，期望能看到推荐的热门群或相同爱好的群。但实际结果中，该功能并未展示任何推荐群组，导致用户无法根据推荐找到他们可能感兴趣的群组。</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t xml:space="preserve">
  jayme 朋友 界面 选择 群组 加入 群 期望 看到 推荐 热门 群 相同 爱好 群 并未 展示 推荐 群组 无法 推荐 找到 感兴趣 群组</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10010000009195</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>该软件界面中的群组搜索功能存在明显缺陷。在用户尝试搜索已加入的群组时，系统并未提供任何视觉或文本提示表明这些群组是已加入的。这导致用户无法直观地识别哪些群组是他们已经加入的，从而增加了用户的困惑和操作难度。这种设计不符合常规的用户交互习惯，可能会对用户体验造成负面影响。</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>界面 群组 搜索 明显 缺陷 搜索 加入 群组 系统 并未 提供 视觉 文本 提示 表明 群组 加入 无法 直观 识别 群组 加入 增加 困惑 难度 设计 符合 常规 交互 习惯 造成 负面影响</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10010000008911</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>在手机软件的“朋友-我的群组-加入群”界面中，当用户点击“查找群”和“热门群推荐”标签时，应用程序没有响应。</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>手机软件 朋友 - 群组 - 加入 群 界面 点击 查找 群 热门 群 推荐 标签 应用程序 没有响应</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10010000008971</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>该软件在创建群组或修改群组成员信息时，功能设计存在缺陷。具体表现为，用户在尝试添加新成员到群组或修改自己作为群组成员的信息（如名称和头像）时，未能找到相应的操作选项，导致用户体验不佳。这种设计上的疏忽可能会影响用户对软件的满意度和使用频率。</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>创建 群组 修改 群 组成员 信息 功能设计 缺陷 具体表现 添加 新 成员 群组 修改 群 组成员 信息 名称 头像 未能 找到 相应 选项 不佳 设计 疏忽 软件 满意度 频率</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10010000008935</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>该软件界面显示了一个群组管理功能，其中包含了用户创建、管理的以及添加的群组。然而，这些分组似乎并没有按照预期的方式展示，导致用户体验不佳。特别是“我创建的群”、“我管理的群”和“我添加的群建议分组”，它们应该以一种直观和可视化的方式呈现给用户，以方便用户快速识别和访问。但在当前的界面中，这些分组的展示并不清晰，可能会给用户带来混淆和不便。</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>界面显示 群组 管理 包含 创建 管理 添加 群组 分组 没有 预期 方式 展示 不佳 特别 创建 群 管理 群 添加 群 建议 分组 应该 一种 直观 可视化 方式 呈现 方便 快速 识别 访问 当前 界面 分组 展示 清晰 带来 混淆 不便</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>10010000009376</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>用户在被邀请加入群组时，没有征求用户确认</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>邀请 加入 群组 没有 征求 确认</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>10010000009887</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>当用户没有添加任何群组的时候，查看群组列表是一片空白，没有提示用户是没有添加任何按钮还是没有加载出来，可能会造成用户等到响应而实际已经响应完毕的情况，影响用户体验。</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>没有 添加 群组 查看 群组 列表 一片空白 没有 提示 没有 添加 按钮 没有 加载 造成 响应 响应 完毕 情况</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>10010000009290</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="C105" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>该bug描述如下：
 当用户在“朋友-我的群组-更多-加入群”路径下，尝试搜索并加入他们之前创建的群聊时，系统正确地显示了搜索结果。然而，当用户点击加入群的按钮后，预期出现的提示信息“此群已在您的群组列表内，直接进入群聊？”并没有出现。此外，如果用户在搜索时输入错误的群聊名称，系统也没有给出相应的错误提示。这可能导致用户感到困惑和不便。</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t xml:space="preserve">
  朋友 - 群组 - 更 - 加入 群 路径 搜索 加入 之前 创建 群聊 系统 正确 搜索 点击 加入 群 按钮 预期 出现 提示信息 此群 群组 列表 进入 群聊 没有 出现 搜索 输入 错误 群聊 名称 系统 没有 给出 相应 错误 提示 感到 困惑 不便</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10010000009389</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>问题描述：当用户尝试在断开手机网络的情况下，通过“朋友-我的群组-更多-加入群”路径跳转到查找群页面并进行群号搜索时，系统没有提供任何关于网络异常或网速较慢的提示信息。这可能导致用户误以为他们的操作是成功的，但实际上由于网络连接问题，他们可能无法成功加入群组。</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>断开 手机 网络 情况 朋友 - 群组 - 更 - 加入 群 路径 跳转 查找 群 页面 进行 群号 搜索 系统 没有 提供 网络 异常 网速 较慢 提示信息 误以为 成功 实际上 网络连接 无法 成功 加入 群组</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10010000009487</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>创建群组时，在群信息设置处，左上角的群名有瞬间的延迟，会从相对左下方向右上方移动。</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>创建 群组 群 信息 设置 处 左上角 群名 瞬间 延迟 相对 左下方 右上方 移动</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10010000009716</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>在“我的群组”界面，点击右上角“搜索”按钮，输入信息进行搜索我的群组，显示出的群组与用户搜索的关键词相关性不大
 输入2会出现部分的群组，但有些群组名中含并不有“2”。搜索出的群组名有“1234”、“890”、“动物园”。</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>群组 界面 点击 右上角 搜索 按钮 输入 信息 进行 搜索 群组 出 群组 搜索 关键词 相关性 
  输入 出现 部分 群组 群组 名中 含 搜索 出 群组 名有 1234 890 动物园</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10010000009909</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>在“朋友”界面、群聊界面的搜索框不可以搜索未加入的群组，只有群聊里“加入群”的界面中才可以搜到为加入的群组。</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>朋友 界面 群聊 界面 搜索 框 搜索 未 加入 群组 群聊 里 加入 群 界面 中才 搜到 加入 群组</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10010000009503</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>进行操作3后，当用户点击已加入的群组后，会直接进入聊天页面，而不显示出该群组的相关信息，影响用户体验。</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>进行 点击 加入 群组 进入 聊天 页面 出该 群组 相关 信息</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10010000009559</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>当收到来自其他人请求加入被设置权限的群组时，无论选择同意还是拒绝，都会弹出一个对话框并迅速显示，属于用户体验bug</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>收到 其他人 请求 加入 设置 权限 群组 选择 同意 拒绝 弹出 对话框 迅速 属于</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10010000009955</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>加入一个群的时候群简介不多，而且看不到群组部分人员啊 ，不能了解到更多信息， 画面看上去比较空洞。</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>加入 群 群 简介 看不到 群组 部分 人员   不能 了解 更 信息   画面 看上去 比较 空洞</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
